--- a/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="92">
   <si>
     <t>INM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,98 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,16 +838,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="E12" s="3">
-        <v>900</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -829,20 +857,26 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>3100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1081,8 +1161,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1096,66 +1176,84 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,37 +1386,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,269 +1705,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>9500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>9900</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
         <v>11900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3">
-        <v>100</v>
-      </c>
-      <c r="J42" s="3">
-        <v>100</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>700</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
-        <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>10900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>10200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
         <v>12400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>15100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
-        <v>600</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,22 +2086,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>12300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>11700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>14100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,167 +2225,199 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1400</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>1800</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,37 +2656,49 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
+      <c r="D70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-71600</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-68500</v>
       </c>
-      <c r="F72" s="3">
-        <v>-78600</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>-64600</v>
       </c>
-      <c r="H72" s="3">
-        <v>-74100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-71300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-68500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-64600</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>10400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>9600</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>12100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2864,23 +3306,29 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>5000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,42 +3581,54 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E100" s="3">
-        <v>7000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
@@ -3141,8 +3639,8 @@
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>-700</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -3153,33 +3651,45 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="E102" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="92">
   <si>
     <t>INM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,66 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,8 +749,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -755,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -866,17 +879,20 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -936,8 +955,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -971,17 +993,20 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>100</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1017,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1018,17 +1044,20 @@
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1053,17 +1082,20 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1103,17 +1136,20 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1138,17 +1174,20 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,8 +1221,11 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1208,17 +1250,20 @@
       <c r="J23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1243,8 +1288,8 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1252,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1335,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1313,17 +1364,20 @@
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1348,17 +1402,20 @@
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,8 +1478,8 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1523,17 +1592,20 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1558,17 +1630,20 @@
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1677,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1628,57 +1706,63 @@
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1792,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1733,17 +1819,20 @@
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
         <v>11900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1768,17 +1857,20 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>100</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>100</v>
       </c>
       <c r="M42" s="3">
+        <v>100</v>
+      </c>
+      <c r="N42" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1803,17 +1895,20 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1838,8 +1933,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1847,8 +1942,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1873,17 +1971,20 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1908,17 +2009,20 @@
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>12400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1943,8 +2047,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -1952,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1978,17 +2085,20 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>600</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
       </c>
       <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2013,17 +2123,20 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>1100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1200</v>
       </c>
       <c r="M49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2284,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2188,17 +2313,20 @@
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>14100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2253,17 +2383,20 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2288,17 +2421,20 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2323,8 +2459,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2332,8 +2468,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2358,17 +2497,20 @@
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2394,16 +2536,19 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>400</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2696,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2568,17 +2725,20 @@
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2688,8 +2855,8 @@
       <c r="J70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
+      <c r="K70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,8 +2902,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2758,17 +2931,20 @@
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>-71300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-68500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-64600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3054,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2898,17 +3083,20 @@
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>12100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3130,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3008,17 +3202,20 @@
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3058,17 +3256,20 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3268,17 +3484,20 @@
       <c r="J89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3318,8 +3538,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3327,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3423,17 +3652,20 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>5000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3613,17 +3858,20 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +3905,11 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3683,13 +3934,16 @@
       <c r="J102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="92">
   <si>
     <t>INM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,8 +756,8 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -882,17 +896,20 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,8 +978,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -996,17 +1019,20 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>100</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1044,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1047,17 +1074,20 @@
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,17 +1115,20 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1139,17 +1173,20 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1177,17 +1214,20 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,8 +1264,11 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1253,17 +1296,20 @@
       <c r="K23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1291,8 +1337,8 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,8 +1387,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1367,17 +1419,20 @@
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1405,17 +1460,20 @@
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,8 +1542,8 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1595,17 +1665,20 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1633,17 +1706,20 @@
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,8 +1756,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1709,60 +1788,66 @@
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +1879,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1822,17 +1909,20 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>11900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1860,17 +1950,20 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>100</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>100</v>
       </c>
       <c r="N42" s="3">
+        <v>100</v>
+      </c>
+      <c r="O42" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1898,17 +1991,20 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1936,8 +2032,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -1945,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1974,17 +2073,20 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2012,17 +2114,20 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>12400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2050,8 +2155,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2088,17 +2196,20 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>600</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2126,17 +2237,20 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
         <v>1100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1200</v>
       </c>
       <c r="N49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2410,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2316,17 +2442,20 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>14100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2386,17 +2517,20 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2424,17 +2558,20 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2462,8 +2599,8 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2471,8 +2608,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2500,17 +2640,20 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2539,16 +2682,19 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>400</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,8 +2854,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2728,17 +2886,20 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2858,8 +3026,8 @@
       <c r="K70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
+      <c r="L70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,8 +3076,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2934,17 +3108,20 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-71300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-68500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-64600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,8 +3240,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3086,17 +3272,20 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>12100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,51 +3322,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3205,17 +3400,20 @@
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3259,17 +3458,20 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3487,17 +3704,20 @@
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3541,8 +3762,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3655,17 +3885,20 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>5000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3861,17 +4107,20 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3937,13 +4189,16 @@
       <c r="K102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="92">
   <si>
     <t>INM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,8 +763,8 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -899,17 +913,20 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,8 +1001,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,17 +1045,20 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>100</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1077,17 +1104,20 @@
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1118,17 +1148,20 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1176,17 +1210,20 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1217,17 +1254,20 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,8 +1307,11 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1299,17 +1342,20 @@
       <c r="L23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1340,8 +1386,8 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1439,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1422,17 +1474,20 @@
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1463,17 +1518,20 @@
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1545,8 +1606,8 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1668,17 +1738,20 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1709,17 +1782,20 @@
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1835,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1791,63 +1870,69 @@
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1912,17 +1999,20 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>11900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1953,17 +2043,20 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>100</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>100</v>
       </c>
       <c r="O42" s="3">
+        <v>100</v>
+      </c>
+      <c r="P42" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1994,17 +2087,20 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2035,8 +2131,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2076,17 +2175,20 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2117,17 +2219,20 @@
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>12400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2158,8 +2263,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2199,17 +2307,20 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>600</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
       </c>
       <c r="O48" s="3">
+        <v>600</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2240,17 +2351,20 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
         <v>1100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1200</v>
       </c>
       <c r="O49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2445,17 +2571,20 @@
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>14100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2520,17 +2651,20 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2561,17 +2695,20 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2602,8 +2739,8 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2611,8 +2748,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2643,17 +2783,20 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2685,16 +2828,19 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>400</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,8 +3012,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2889,17 +3047,20 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3029,8 +3197,8 @@
       <c r="L70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
+      <c r="M70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,8 +3250,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3111,17 +3285,20 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-71300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-68500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-64600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,8 +3426,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3275,17 +3461,20 @@
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>12100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,54 +3514,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3403,17 +3598,20 @@
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3461,17 +3660,20 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3707,17 +3924,20 @@
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3765,8 +3986,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3888,17 +4118,20 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>5000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4110,17 +4356,20 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4192,13 +4444,16 @@
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
   <si>
     <t>INM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,98 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3">
+        <v>300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -766,34 +773,40 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -819,25 +832,31 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,31 +906,33 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1700</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -916,17 +943,23 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,14 +1019,14 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1004,40 +1043,46 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1048,17 +1093,23 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,31 +1123,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
@@ -1107,34 +1160,40 @@
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-4300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
@@ -1151,17 +1210,23 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,25 +1243,27 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1213,34 +1280,40 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-4200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1257,17 +1330,23 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,14 +1356,14 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1310,31 +1389,37 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>4</v>
@@ -1345,25 +1430,31 @@
       <c r="M23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
@@ -1389,17 +1480,23 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,31 +1539,37 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
@@ -1477,40 +1580,46 @@
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3300</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
@@ -1521,17 +1630,23 @@
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,31 +1689,37 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1609,17 +1730,23 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,25 +1839,31 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -1741,40 +1880,46 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
@@ -1785,17 +1930,23 @@
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,31 +1989,37 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
@@ -1873,66 +2030,78 @@
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,31 +2138,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -2002,40 +2175,46 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>11900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>14700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -2046,40 +2225,46 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3">
         <v>100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2090,34 +2275,40 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1000</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2134,40 +2325,46 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2178,40 +2375,46 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8400</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
@@ -2222,40 +2425,46 @@
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>12400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>15100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2266,40 +2475,46 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>300</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2310,40 +2525,46 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2354,17 +2575,23 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
         <v>1100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,31 +2684,37 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,31 +2784,37 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>19400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>17300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>9800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
@@ -2574,17 +2825,23 @@
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>14100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2878,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2654,17 +2915,23 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1400</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2674,14 +2941,14 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2698,40 +2965,46 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -2742,40 +3015,46 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
@@ -2786,17 +3065,23 @@
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2831,39 +3116,45 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,31 +3324,37 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
@@ -3050,17 +3365,23 @@
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,31 +3494,37 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>4</v>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>4</v>
@@ -3200,17 +3535,23 @@
       <c r="M70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
+      <c r="N70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3594,37 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-77800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-74900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
@@ -3288,17 +3635,23 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-71300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-68500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-64600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,31 +3794,37 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
@@ -3464,17 +3835,23 @@
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>12100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>15000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,80 +3894,92 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
@@ -3601,17 +3990,23 @@
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,31 +4023,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3663,17 +4060,23 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4319,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-2000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
@@ -3927,17 +4360,23 @@
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,11 +4406,11 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3989,17 +4430,23 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4539,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -4121,17 +4580,23 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>5000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,31 +4809,37 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -4359,40 +4850,46 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -4412,31 +4909,37 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>300</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-2100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
@@ -4447,13 +4950,19 @@
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="92">
   <si>
     <t>INM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>300</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3">
+        <v>300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
@@ -779,8 +783,8 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -788,29 +792,32 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,20 +857,20 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>-500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -917,26 +931,26 @@
         <v>900</v>
       </c>
       <c r="E12" s="3">
+        <v>900</v>
+      </c>
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -949,17 +963,20 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,18 +1039,18 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1049,8 +1069,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1058,25 +1078,28 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1084,8 +1107,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1099,17 +1122,20 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>100</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,35 +1151,36 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1166,17 +1193,20 @@
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,20 +1214,20 @@
         <v>-2200</v>
       </c>
       <c r="E18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1216,17 +1246,20 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,28 +1278,29 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1286,38 +1320,41 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1336,17 +1373,20 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,8 +1396,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1365,8 +1405,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1395,35 +1435,38 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1436,17 +1479,20 @@
       <c r="O23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1456,8 +1502,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1486,8 +1532,8 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,35 +1594,38 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1586,44 +1638,47 @@
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1636,17 +1691,20 @@
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1721,8 +1782,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1736,8 +1797,8 @@
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,28 +1912,31 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -1886,44 +1956,47 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1936,17 +2009,20 @@
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,35 +2071,38 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2036,72 +2115,78 @@
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,35 +2226,36 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2181,17 +2268,20 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>11900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2216,8 +2306,8 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
@@ -2231,28 +2321,31 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>100</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>100</v>
       </c>
       <c r="R42" s="3">
+        <v>100</v>
+      </c>
+      <c r="S42" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2261,13 +2354,13 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2281,38 +2374,41 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2331,8 +2427,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2340,35 +2436,38 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2381,44 +2480,47 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E46" s="3">
         <v>14000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2431,17 +2533,20 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>12400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2466,8 +2571,8 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2481,8 +2586,8 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2490,34 +2595,37 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>300</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2531,17 +2639,20 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>600</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
       </c>
       <c r="R48" s="3">
+        <v>600</v>
+      </c>
+      <c r="S48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2549,26 +2660,26 @@
         <v>2000</v>
       </c>
       <c r="E49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="3">
         <v>2100</v>
       </c>
       <c r="G49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H49" s="3">
         <v>5600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2581,17 +2692,20 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1200</v>
       </c>
       <c r="R49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,13 +2807,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2705,19 +2825,19 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,35 +2913,38 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E54" s="3">
         <v>16900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2831,17 +2957,20 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>14100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,35 +3010,36 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1700</v>
       </c>
       <c r="H57" s="3">
         <v>1700</v>
       </c>
       <c r="I57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2921,17 +3052,20 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2941,18 +3075,18 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2971,44 +3105,47 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2200</v>
       </c>
       <c r="F59" s="3">
         <v>2200</v>
       </c>
       <c r="G59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3021,8 +3158,8 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3030,35 +3167,38 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3300</v>
       </c>
       <c r="F60" s="3">
         <v>3300</v>
       </c>
       <c r="G60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3071,17 +3211,20 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3122,42 +3265,45 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>400</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>200</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,35 +3485,38 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3371,17 +3529,20 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3526,8 +3694,8 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>4</v>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>4</v>
@@ -3541,8 +3709,8 @@
       <c r="O70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
+      <c r="P70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,35 +3771,38 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-101100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-99100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-97000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-93500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-85600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-82100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3641,17 +3815,20 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-68500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-64600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,35 +3983,38 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E76" s="3">
         <v>14300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3841,17 +4027,20 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>12100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,90 +4089,96 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
@@ -3996,17 +4191,20 @@
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,25 +4223,26 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4051,8 +4250,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -4066,17 +4265,20 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,35 +4539,38 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
@@ -4366,17 +4583,20 @@
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4412,14 +4633,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4436,8 +4657,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,34 +4772,37 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -4586,17 +4816,20 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>5000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,35 +5058,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4856,17 +5102,20 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4891,8 +5140,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
@@ -4915,35 +5164,38 @@
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
@@ -4956,13 +5208,16 @@
       <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
   <si>
     <t>INM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
@@ -763,13 +771,13 @@
         <v>300</v>
       </c>
       <c r="I8" s="3">
+        <v>500</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>300</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -786,25 +794,31 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F9" s="3">
         <v>800</v>
@@ -813,17 +827,17 @@
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,35 +862,41 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-500</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,41 +948,43 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,17 +994,23 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1042,21 +1082,21 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>3500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1072,17 +1112,23 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,31 +1136,31 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1125,17 +1171,23 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,41 +1204,43 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>7000</v>
       </c>
       <c r="H17" s="3">
         <v>3800</v>
       </c>
       <c r="I17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1196,44 +1250,50 @@
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-6500</v>
       </c>
       <c r="H18" s="3">
         <v>-3500</v>
       </c>
       <c r="I18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1249,17 +1309,23 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,34 +1345,36 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1323,44 +1391,50 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1376,28 +1450,34 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1408,11 +1488,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1438,41 +1518,47 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-7900</v>
       </c>
       <c r="H23" s="3">
         <v>-3500</v>
       </c>
       <c r="I23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1482,17 +1568,23 @@
       <c r="P23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1505,11 +1597,11 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
@@ -1535,17 +1627,23 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,41 +1695,47 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-7900</v>
       </c>
       <c r="H26" s="3">
         <v>-3500</v>
       </c>
       <c r="I26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1641,50 +1745,56 @@
       <c r="P26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-7900</v>
       </c>
       <c r="H27" s="3">
         <v>-3500</v>
       </c>
       <c r="I27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1694,17 +1804,23 @@
       <c r="P27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1785,11 +1907,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -1800,17 +1922,23 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,34 +2049,40 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -1959,50 +2099,56 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-7900</v>
       </c>
       <c r="H33" s="3">
         <v>-3500</v>
       </c>
       <c r="I33" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2012,17 +2158,23 @@
       <c r="P33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,41 +2226,47 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-7900</v>
       </c>
       <c r="H35" s="3">
         <v>-3500</v>
       </c>
       <c r="I35" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2118,75 +2276,87 @@
       <c r="P35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2399,43 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F41" s="3">
         <v>9600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>15300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2271,17 +2445,23 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>11900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>14700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2309,11 +2489,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
@@ -2324,17 +2504,23 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3">
         <v>100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,31 +2528,31 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2377,44 +2563,50 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E44" s="3">
         <v>1600</v>
       </c>
       <c r="F44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H44" s="3">
         <v>1800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2430,50 +2622,56 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>800</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>800</v>
+      </c>
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2483,50 +2681,56 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F46" s="3">
         <v>11800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>14000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>11500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>12500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2536,17 +2740,23 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>12400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>15100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2574,11 +2784,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2589,22 +2799,28 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
@@ -2613,26 +2829,26 @@
         <v>800</v>
       </c>
       <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>800</v>
+      </c>
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2642,50 +2858,56 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F49" s="3">
         <v>2000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2695,17 +2917,23 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
         <v>1100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,31 +3059,31 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3162,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F54" s="3">
         <v>14700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>14600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>19400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>17300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2960,17 +3212,23 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>14100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>16900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3271,43 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3055,17 +3317,23 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1400</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U57" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3078,21 +3346,21 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3108,50 +3376,56 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3161,50 +3435,56 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3214,17 +3494,23 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3268,49 +3554,55 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3798,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3532,17 +3848,23 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3697,11 +4033,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>4</v>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>4</v>
@@ -3712,17 +4048,23 @@
       <c r="P70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0</v>
+      <c r="Q70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +4116,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-103900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-101100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-99100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-97000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-93500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-85600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-82100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-77800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-74900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3818,17 +4166,23 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-71300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-68500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-64600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4352,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F76" s="3">
         <v>12400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4030,17 +4402,23 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>12100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>15000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,99 +4470,111 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-7900</v>
       </c>
       <c r="H81" s="3">
         <v>-3500</v>
       </c>
       <c r="I81" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
@@ -4194,17 +4584,23 @@
       <c r="P81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,31 +4631,31 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4268,17 +4666,23 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,41 +4970,47 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
@@ -4586,17 +5020,23 @@
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +5056,15 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4642,11 +5084,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4660,17 +5102,23 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,40 +5229,46 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -4819,17 +5279,23 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>5000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,41 +5547,47 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>5400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>5100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5105,17 +5597,23 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5143,11 +5641,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
@@ -5167,41 +5665,47 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
@@ -5211,13 +5715,19 @@
       <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>
